--- a/M.S Courses.xlsx
+++ b/M.S Courses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eyalmichaeli/Desktop/School/Master's/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eyalmichaeli/Desktop/School/Master's/IDC_masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BCFCAF-BCBD-2A48-8372-CB3A7109905C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB72D775-2C96-F44F-AB09-AAAEC313C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{57FA24FD-035E-2D49-A048-8517D9B794E3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
   <si>
     <t>Course</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Deep Learning</t>
   </si>
   <si>
-    <t>Advanced Machine Learning</t>
-  </si>
-  <si>
     <t>Dr. Shai Fine</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>3031 - פיתוח עבור מחשוב ענן</t>
   </si>
   <si>
-    <t>3640 - RL</t>
-  </si>
-  <si>
     <t>Unsupervised Learning - 3655</t>
   </si>
   <si>
@@ -328,6 +322,21 @@
   </si>
   <si>
     <t>ד"ר אור יאיר</t>
+  </si>
+  <si>
+    <t>3166 - פרוייקטים עם התעשיה והאקדמיה</t>
+  </si>
+  <si>
+    <t>Advanced Machine Learning - 3603</t>
+  </si>
+  <si>
+    <t>RL - 3640</t>
+  </si>
+  <si>
+    <t>3662 - סמינר למידה וגרפיקה: אנשים וירטואליים (סמינריון)</t>
+  </si>
+  <si>
+    <t>ד״ר אוהד פריד</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6992F39-7AEB-5548-BEAF-FBC6F461985A}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1054,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1056,7 +1065,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1080,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>2</v>
@@ -1098,10 +1107,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>55</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1133,16 +1142,16 @@
         <v>24</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1176,7 +1185,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="29"/>
     </row>
@@ -1215,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1229,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="33">
         <v>3</v>
@@ -1244,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>27</v>
@@ -1252,7 +1261,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="34"/>
     </row>
@@ -1291,7 +1300,7 @@
         <v>48</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>48</v>
@@ -1324,75 +1333,71 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>2</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33">
+        <v>3</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>2</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="29">
+        <v>8</v>
+      </c>
+      <c r="G15" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
-        <v>1</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="26">
-        <v>3</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>1</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="33">
-        <v>3</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="33"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
@@ -1402,9 +1407,11 @@
         <v>8</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>86</v>
+      </c>
       <c r="E16" s="29" t="s">
         <v>5</v>
       </c>
@@ -1412,146 +1419,150 @@
         <v>8</v>
       </c>
       <c r="G16" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="35">
         <v>2</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="29" t="s">
+      <c r="C17" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37">
+        <v>3</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>2</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F19" s="29">
         <v>8</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G19" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35">
+        <v>2</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35">
         <v>3</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
-        <v>2</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:14" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
-        <v>2</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37">
-        <v>3</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
-        <v>2</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="29">
-        <v>8</v>
-      </c>
-      <c r="G20" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="29"/>
+      <c r="H20" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
@@ -1561,31 +1572,29 @@
         <v>15</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D21" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>53</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35">
         <v>3</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="35"/>
-      <c r="L21" s="35" t="s">
-        <v>58</v>
-      </c>
+      <c r="L21" s="35"/>
       <c r="M21" s="35"/>
     </row>
     <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1596,15 +1605,15 @@
         <v>15</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="F22" s="39"/>
       <c r="G22" s="35">
         <v>3</v>
       </c>
@@ -1612,14 +1621,14 @@
         <v>26</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
@@ -1629,32 +1638,32 @@
         <v>15</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="F23" s="39"/>
       <c r="G23" s="35">
         <v>3</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>2</v>
       </c>
@@ -1662,147 +1671,192 @@
         <v>15</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="F24" s="35"/>
       <c r="G24" s="35">
         <v>3</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I24" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="35">
+        <v>2</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="35">
+        <v>3</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-    </row>
-    <row r="25" spans="1:14" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
-        <v>2</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37">
+      <c r="E26" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="37">
         <v>3</v>
       </c>
-      <c r="H25" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="G26">
-        <f>SUM(G8:G25)</f>
-        <v>49</v>
-      </c>
+      <c r="H26" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="21">
+      <c r="C31" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="48">
+        <v>8</v>
+      </c>
+      <c r="H31" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48" t="s">
+      <c r="C32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="48">
-        <v>8</v>
-      </c>
-      <c r="H32" s="49">
-        <v>3</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="4">
+        <v>9</v>
+      </c>
+      <c r="H32" s="12">
+        <v>9</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="23">
+        <f>15-N31</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -1810,44 +1864,41 @@
         <v>8</v>
       </c>
       <c r="G33" s="4">
-        <v>9</v>
-      </c>
-      <c r="H33" s="12">
-        <v>9</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="23">
-        <f>15-N32</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G34" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -1855,145 +1906,140 @@
         <v>15</v>
       </c>
       <c r="G35" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="4" t="s">
+      <c r="C36" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="26">
         <v>8</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H36" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="26" t="s">
+      <c r="C37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="26">
-        <v>8</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G37" s="4">
+        <v>5</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="4" t="s">
+      <c r="C38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="4">
-        <v>5</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G38" s="26">
+        <v>9</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="26" t="s">
+      <c r="C39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="26">
-        <v>9</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="4">
-        <v>5</v>
+      <c r="G40" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="11" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>69</v>
+      <c r="G41" s="4">
+        <v>8</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
@@ -2004,11 +2050,11 @@
         <v>7</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="28"/>
@@ -2019,7 +2065,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2028,7 +2074,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2037,7 +2083,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="E46" s="1"/>
@@ -2045,7 +2091,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="E47" s="1"/>

--- a/M.S Courses.xlsx
+++ b/M.S Courses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eyalmichaeli/Desktop/School/Master's/IDC_masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB72D775-2C96-F44F-AB09-AAAEC313C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811BEB5C-E04E-7447-9571-23D7B47B22F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{57FA24FD-035E-2D49-A048-8517D9B794E3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
   <si>
     <t>Course</t>
   </si>
@@ -165,30 +165,6 @@
     <t>3031 - Cloud computing</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3614 - Practical probability Models for Computer Science </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Seminar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>all have 3 points- total I need 5 of them</t>
   </si>
   <si>
@@ -337,13 +313,19 @@
   </si>
   <si>
     <t>ד״ר אוהד פריד</t>
+  </si>
+  <si>
+    <t>סמינר נושאים מתקדמים בלמידה וגרפיקה ממוחשבת - 3647</t>
+  </si>
+  <si>
+    <t>ד״ר אוהד פריד, אריאל שמיר</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,14 +347,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,12 +375,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,6 +391,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -575,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,49 +607,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,6 +669,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1012,16 +1000,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6992F39-7AEB-5548-BEAF-FBC6F461985A}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="59.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
@@ -1035,14 +1023,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1"/>
@@ -1053,8 +1041,8 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="44" t="s">
-        <v>71</v>
+      <c r="C3" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1064,8 +1052,8 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="45" t="s">
-        <v>80</v>
+      <c r="C4" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1073,302 +1061,302 @@
       <c r="H4" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="47">
+        <v>1</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47">
+        <v>8</v>
+      </c>
+      <c r="G8" s="47">
+        <v>4</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="47" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="M8" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="C9" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="47">
+        <v>5</v>
+      </c>
+      <c r="G9" s="47">
+        <v>3</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="47">
+        <v>1</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="47">
+        <v>8</v>
+      </c>
+      <c r="G10" s="47">
+        <v>3</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
+        <v>1</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="49">
+        <v>3</v>
+      </c>
+      <c r="G11" s="49">
+        <v>3</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47">
+        <v>1</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F12" s="47">
         <v>8</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G12" s="47">
         <v>4</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H12" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="I12" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="47">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="29">
-        <v>5</v>
-      </c>
-      <c r="G9" s="29">
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="47">
+        <v>7</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <v>2</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49">
         <v>3</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
-        <v>1</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="29">
-        <v>8</v>
-      </c>
-      <c r="G10" s="29">
-        <v>3</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>1</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="34" t="s">
+      <c r="H14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="33">
-        <v>3</v>
-      </c>
-      <c r="G11" s="33">
-        <v>3</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
-        <v>1</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="29">
-        <v>8</v>
-      </c>
-      <c r="G12" s="29">
-        <v>4</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
-        <v>1</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="29">
-        <v>7</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <v>2</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33">
-        <v>3</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
@@ -1378,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="29" t="s">
@@ -1395,7 +1383,7 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="29"/>
     </row>
@@ -1407,10 +1395,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>5</v>
@@ -1428,77 +1416,77 @@
         <v>24</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="A17" s="32">
         <v>2</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>2</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:14" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
-        <v>2</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="37" t="s">
+      <c r="D18" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="E18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34">
+        <v>3</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37">
-        <v>3</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="J18" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
@@ -1508,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="29" t="s">
@@ -1525,338 +1513,332 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="32">
         <v>2</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32">
+        <v>3</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
+        <v>2</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32">
+        <v>3</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>2</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D22" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35">
+      <c r="F22" s="36"/>
+      <c r="G22" s="32">
         <v>3</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I22" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
+        <v>2</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="32">
+        <v>3</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+      <c r="J23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32">
         <v>2</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B24" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35">
+      <c r="C24" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32">
         <v>3</v>
       </c>
-      <c r="H21" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
+      <c r="H24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
         <v>2</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B25" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="35">
+      <c r="C25" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="32">
         <v>3</v>
       </c>
-      <c r="H22" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="35" t="s">
+      <c r="H25" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>2</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32">
+        <v>3</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>2</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-    </row>
-    <row r="23" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
-        <v>2</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="35">
+      <c r="E27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="34">
         <v>3</v>
       </c>
-      <c r="H23" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-    </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
-        <v>2</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35">
-        <v>3</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="35"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
-        <v>2</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="35">
-        <v>3</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
-        <v>2</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="37">
-        <v>3</v>
-      </c>
-      <c r="H26" s="37" t="s">
+      <c r="H27" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="37"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="21">
-        <v>3</v>
-      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="48">
-        <v>8</v>
-      </c>
-      <c r="H31" s="49">
-        <v>3</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="4">
-        <v>9</v>
-      </c>
-      <c r="H32" s="12">
-        <v>9</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="23">
-        <f>15-N31</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="K32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -1864,41 +1846,44 @@
         <v>8</v>
       </c>
       <c r="G33" s="4">
-        <v>6</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H33" s="12">
+        <v>9</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="23">
+        <f>15-N32</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G34" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -1906,175 +1891,190 @@
         <v>15</v>
       </c>
       <c r="G35" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="26" t="s">
+      <c r="C36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="4">
         <v>8</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="4" t="s">
+      <c r="C37" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="4">
-        <v>5</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G37" s="26">
+        <v>8</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="26" t="s">
+      <c r="C38" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="26">
-        <v>9</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G38" s="4">
+        <v>5</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="4" t="s">
+      <c r="C39" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="4">
-        <v>5</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G39" s="26">
+        <v>9</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>68</v>
+      <c r="G40" s="4">
+        <v>5</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="11" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="4">
-        <v>8</v>
+      <c r="G41" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="5" t="s">
+      <c r="C42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="5">
-        <v>7</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>68</v>
+      <c r="G42" s="4">
+        <v>8</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="C43" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="5">
+        <v>7</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="28"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2083,7 +2083,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="E46" s="1"/>
@@ -2091,7 +2092,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="E47" s="1"/>
@@ -2099,6 +2100,14 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
